--- a/Decision Matrix Draft.xlsx
+++ b/Decision Matrix Draft.xlsx
@@ -54,9 +54,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>Criteria</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>Final Weights</t>
   </si>
 </sst>
 </file>
@@ -143,15 +143,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -169,28 +175,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -200,11 +184,50 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -212,32 +235,38 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -246,69 +275,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -329,60 +317,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,51 +388,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -784,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -794,182 +768,182 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+      <c r="A2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32">
-        <v>1</v>
-      </c>
-      <c r="C4" s="32">
-        <v>3</v>
-      </c>
-      <c r="D4" s="32">
-        <v>3</v>
-      </c>
-      <c r="E4" s="32">
-        <v>1</v>
-      </c>
-      <c r="F4" s="30">
+      <c r="B4" s="31">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31">
+        <v>3</v>
+      </c>
+      <c r="D4" s="31">
+        <v>3</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
         <f>ROUND(GEOMEAN(B4:E4), 2)</f>
         <v>1.73</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <f>ROUND(GEOMEAN(B4:E4)/SUM($F$4:$F$7), 2)</f>
         <v>0.39</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="32">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="31">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C5" s="32">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32">
-        <v>3</v>
-      </c>
-      <c r="E5" s="32">
-        <v>3</v>
-      </c>
-      <c r="F5" s="30">
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31">
+        <v>3</v>
+      </c>
+      <c r="E5" s="31">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
         <f>ROUND(GEOMEAN(B5:E5), 2)</f>
         <v>1.32</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <f>ROUND(GEOMEAN(B5:E5)/SUM($F$4:$F$7), 2)</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="32">
-        <v>1</v>
-      </c>
-      <c r="E6" s="32">
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="8">
         <f>ROUND(GEOMEAN(B6:E6), 2)</f>
         <v>0.44</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="8">
         <f>ROUND(GEOMEAN(B6:E6)/SUM($F$4:$F$7), 2)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="33">
-        <v>1</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="A7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="31">
+        <v>1</v>
+      </c>
+      <c r="C7" s="31">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D7" s="33">
-        <v>3</v>
-      </c>
-      <c r="E7" s="33">
-        <v>1</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="D7" s="31">
+        <v>3</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
         <f>ROUND(GEOMEAN(B7:E7), 2)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="8">
         <f>ROUND(GEOMEAN(B7:E7)/SUM($F$4:$F$7), 2)</f>
         <v>0.22</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:10" ht="16" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -978,179 +952,181 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
+    <row r="14" spans="1:10" ht="16" thickBot="1">
+      <c r="A14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="22">
+        <v>4</v>
+      </c>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18">
-        <v>1</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17">
-        <v>3</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17">
+      <c r="B17" s="23"/>
+      <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="9">
+      <c r="D17" s="5"/>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="5">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="22">
         <v>4</v>
       </c>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="16" t="s">
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18">
+      <c r="B18" s="23"/>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17">
-        <v>3</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="9">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="22">
         <v>4</v>
       </c>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="16" t="s">
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17">
+      <c r="B19" s="23"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="22">
         <v>2</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17">
-        <v>3</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="9">
-        <v>4</v>
-      </c>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="21" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22">
+        <v>3</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22">
+        <v>1</v>
+      </c>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2"/>
+      <c r="B20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="18">
-        <v>1</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="9">
-        <v>2</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9">
-        <v>3</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9">
-        <v>1</v>
-      </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="18">
+      <c r="C20" s="5">
         <f>(16-SUM(C16:C19))</f>
         <v>11</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
         <f t="shared" ref="E20" si="0">(16-SUM(E16:E19))</f>
         <v>8</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
         <f t="shared" ref="G20" si="1">(16-SUM(G16:G19))</f>
         <v>5</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
         <f t="shared" ref="I20" si="2">(16-SUM(I16:I19))</f>
         <v>3</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="11">
+      <c r="A21" s="3"/>
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
         <f>ROUND(C20/24, 2)</f>
         <v>0.46</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
         <f t="shared" ref="E21" si="3">ROUND(E20/24, 2)</f>
         <v>0.33</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <f t="shared" ref="G21" si="4">ROUND(G20/24, 2)</f>
         <v>0.21</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
         <f t="shared" ref="I21" si="5">ROUND(I20/24, 2)</f>
         <v>0.13</v>
       </c>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="16" thickBot="1">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1160,169 +1136,169 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
+    <row r="23" spans="1:12" ht="16" thickBot="1">
+      <c r="A23" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18" t="s">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="37" t="s">
+      <c r="J24" s="13"/>
+      <c r="K24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="38">
-        <v>1</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39">
+      <c r="B25" s="11"/>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39">
-        <v>3</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="12">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>3</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="30">
+      <c r="J25" s="22"/>
+      <c r="K25" s="6">
         <f>ROUND(GEOMEAN(C25,E25, G25, I25), 2)</f>
         <v>0.76</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="6">
         <f>ROUND(K25/SUM($K$25:$K$28), 2)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="38">
-        <v>3</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39">
-        <v>1</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39">
+      <c r="A26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7">
         <v>5</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="12">
-        <v>1</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="30">
+      <c r="H26" s="7"/>
+      <c r="I26" s="32">
+        <v>1</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="6">
         <f t="shared" ref="K26:K28" si="6">ROUND(GEOMEAN(C26,E26, G26, I26), 2)</f>
         <v>1.97</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="6">
         <f t="shared" ref="L26:L28" si="7">ROUND(K26/SUM($K$25:$K$28), 2)</f>
         <v>0.39</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="38">
+      <c r="B27" s="11"/>
+      <c r="C27" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
         <v>0.2</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39">
-        <v>1</v>
-      </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="12">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="32">
         <v>0.2</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="30">
+      <c r="J27" s="22"/>
+      <c r="K27" s="6">
         <f t="shared" si="6"/>
         <v>0.34</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="6">
         <f t="shared" si="7"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42">
-        <v>3</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43">
-        <v>1</v>
-      </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43">
+      <c r="B28" s="11"/>
+      <c r="C28" s="7">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="32">
+        <v>1</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32">
         <v>5</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43">
-        <v>1</v>
-      </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="24">
+      <c r="H28" s="32"/>
+      <c r="I28" s="32">
+        <v>1</v>
+      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="6">
         <f t="shared" si="6"/>
         <v>1.97</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="6">
         <f t="shared" si="7"/>
         <v>0.39</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" ht="16" thickBot="1">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1332,169 +1308,169 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
+    <row r="30" spans="1:12" ht="16" thickBot="1">
+      <c r="A30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18" t="s">
+      <c r="H31" s="13"/>
+      <c r="I31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="46" t="s">
+      <c r="J31" s="13"/>
+      <c r="K31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="38">
-        <v>1</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39">
+      <c r="B32" s="11"/>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7">
         <v>5</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39">
-        <v>3</v>
-      </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="12">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7">
+        <v>3</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="32">
         <v>5</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="30">
+      <c r="J32" s="22"/>
+      <c r="K32" s="6">
         <f>ROUND(GEOMEAN(C32,E32, G32, I32), 2)</f>
         <v>2.94</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="6">
         <f>ROUND(K32/SUM($K$25:$K$28), 2)</f>
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="38">
+      <c r="A33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="7">
         <v>0.2</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39">
-        <v>1</v>
-      </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="12">
-        <v>3</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="30">
+      <c r="H33" s="7"/>
+      <c r="I33" s="32">
+        <v>3</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="6">
         <f t="shared" ref="K33:K35" si="8">ROUND(GEOMEAN(C33,E33, G33, I33), 2)</f>
         <v>0.67</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="6">
         <f t="shared" ref="L33:L35" si="9">ROUND(K33/SUM($K$25:$K$28), 2)</f>
         <v>0.13</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="38">
+      <c r="B34" s="11"/>
+      <c r="C34" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39">
-        <v>3</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39">
-        <v>1</v>
-      </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="12">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
+        <v>3</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="32">
         <v>5</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="30">
+      <c r="J34" s="22"/>
+      <c r="K34" s="6">
         <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="6">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42">
+      <c r="B35" s="11"/>
+      <c r="C35" s="7">
         <v>0.2</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43">
+      <c r="D35" s="7"/>
+      <c r="E35" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43">
+      <c r="F35" s="32"/>
+      <c r="G35" s="32">
         <v>0.2</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43">
-        <v>1</v>
-      </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="24">
+      <c r="H35" s="32"/>
+      <c r="I35" s="32">
+        <v>1</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="K35" s="6">
         <f t="shared" si="8"/>
         <v>0.34</v>
       </c>
-      <c r="L35" s="44">
+      <c r="L35" s="6">
         <f t="shared" si="9"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" ht="16" thickBot="1">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1504,169 +1480,169 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:12" ht="16" thickBot="1">
+      <c r="A37" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18" t="s">
+      <c r="L38" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18" t="s">
+      <c r="B39" s="11"/>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7">
         <v>5</v>
       </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="38">
-        <v>1</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39">
-        <v>5</v>
-      </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7">
         <v>9</v>
       </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="12">
+      <c r="H39" s="7"/>
+      <c r="I39" s="32">
         <v>7</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="30">
+      <c r="J39" s="22"/>
+      <c r="K39" s="6">
         <f>ROUND(GEOMEAN(C39,E39, G39, I39), 2)</f>
         <v>4.21</v>
       </c>
-      <c r="L39" s="31">
+      <c r="L39" s="6">
         <f>ROUND(K39/SUM($K$25:$K$28), 2)</f>
         <v>0.84</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="38">
+      <c r="A40" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="7">
         <v>0.2</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39">
-        <v>1</v>
-      </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7">
         <v>5</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="12">
-        <v>3</v>
-      </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="30">
+      <c r="H40" s="7"/>
+      <c r="I40" s="32">
+        <v>3</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="K40" s="6">
         <f t="shared" ref="K40:K42" si="10">ROUND(GEOMEAN(C40,E40, G40, I40), 2)</f>
         <v>1.32</v>
       </c>
-      <c r="L40" s="31">
+      <c r="L40" s="6">
         <f t="shared" ref="L40:L42" si="11">ROUND(K40/SUM($K$25:$K$28), 2)</f>
         <v>0.26</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="38">
+      <c r="B41" s="11"/>
+      <c r="C41" s="7">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7">
         <v>0.2</v>
       </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39">
-        <v>1</v>
-      </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="12">
-        <v>3</v>
-      </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="30">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="32">
+        <v>3</v>
+      </c>
+      <c r="J41" s="22"/>
+      <c r="K41" s="6">
         <f t="shared" si="10"/>
         <v>0.51</v>
       </c>
-      <c r="L41" s="31">
+      <c r="L41" s="6">
         <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="42">
+      <c r="B42" s="11"/>
+      <c r="C42" s="7">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43">
+      <c r="D42" s="7"/>
+      <c r="E42" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43">
+      <c r="F42" s="32"/>
+      <c r="G42" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43">
-        <v>1</v>
-      </c>
-      <c r="J42" s="41"/>
-      <c r="K42" s="24">
+      <c r="H42" s="32"/>
+      <c r="I42" s="32">
+        <v>1</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="K42" s="6">
         <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
-      <c r="L42" s="44">
+      <c r="L42" s="6">
         <f t="shared" si="11"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" ht="16" thickBot="1">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1676,191 +1652,203 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
+    <row r="44" spans="1:12" ht="16" thickBot="1">
+      <c r="A44" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="35"/>
+    </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="47"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="48" t="s">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48" t="s">
+      <c r="H45" s="34"/>
+      <c r="I45" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="49"/>
+      <c r="J45" s="34"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="51"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="20">
         <f>G4</f>
         <v>0.39</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="5">
         <f>C21</f>
         <v>0.46</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5">
         <f>E21</f>
         <v>0.33</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5">
         <f>G21</f>
         <v>0.21</v>
       </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18">
+      <c r="H47" s="5"/>
+      <c r="I47" s="5">
         <f>I21</f>
         <v>0.13</v>
       </c>
-      <c r="J47" s="19"/>
+      <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="30">
+      <c r="A48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="20">
         <f t="shared" ref="B48:B50" si="12">G5</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="5">
         <f>L26</f>
         <v>0.39</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5">
         <f>L26</f>
         <v>0.39</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5">
         <f>L27</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18">
+      <c r="H48" s="5"/>
+      <c r="I48" s="5">
         <f>L28</f>
         <v>0.39</v>
       </c>
-      <c r="J48" s="19"/>
+      <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="20">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="5">
         <f>L32</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5">
         <f>L33</f>
         <v>0.13</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5">
         <f>L34</f>
         <v>0.3</v>
       </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18">
+      <c r="H49" s="5"/>
+      <c r="I49" s="5">
         <f>L35</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J49" s="19"/>
+      <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="30">
+      <c r="A50" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="20">
         <f t="shared" si="12"/>
         <v>0.22</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="5">
         <f>L39</f>
         <v>0.84</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5">
         <f>L40</f>
         <v>0.26</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5">
         <f>L41</f>
         <v>0.1</v>
       </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="11">
+      <c r="H50" s="5"/>
+      <c r="I50" s="5">
         <f>L42</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J50" s="25"/>
+      <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="6">
+      <c r="A51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="18">
         <f>ROUND(SUM($B47*C47, $B48*C48, $B49*C49, $B50*C50),2)</f>
         <v>0.54</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7">
+      <c r="D51" s="18"/>
+      <c r="E51" s="18">
         <f t="shared" ref="E51" si="13">ROUND(SUM($B47*E47, $B48*E48, $B49*E49, $B50*E50),2)</f>
         <v>0.31</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7">
+      <c r="F51" s="18"/>
+      <c r="G51" s="18">
         <f t="shared" ref="G51" si="14">ROUND(SUM($B47*G47, $B48*G48, $B49*G49, $B50*G50),2)</f>
         <v>0.15</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7">
+      <c r="H51" s="18"/>
+      <c r="I51" s="18">
         <f t="shared" ref="I51" si="15">ROUND(SUM($B47*I47, $B48*I48, $B49*I49, $B50*I50),2)</f>
         <v>0.19</v>
       </c>
-      <c r="J51" s="8"/>
+      <c r="J51" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="144">
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A44:J44"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
@@ -1939,7 +1927,6 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>

--- a/Decision Matrix Draft.xlsx
+++ b/Decision Matrix Draft.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
-    <t>Origionality</t>
-  </si>
-  <si>
     <t>Need</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Interest: How much each project interests the group members.</t>
   </si>
   <si>
-    <t>Origionality: How origional is the project.</t>
-  </si>
-  <si>
     <t>Need: How much does the project fill a real world need.</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>Simplicity Weights</t>
   </si>
   <si>
-    <t>Origionality Weights</t>
-  </si>
-  <si>
     <t>Need Weights</t>
   </si>
   <si>
@@ -97,6 +88,15 @@
   </si>
   <si>
     <t>Final Weights</t>
+  </si>
+  <si>
+    <t>Originality Weights</t>
+  </si>
+  <si>
+    <t>Originality</t>
+  </si>
+  <si>
+    <t>Originality: How original is the project.</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
   <dimension ref="A2:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -769,7 +769,7 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -781,27 +781,27 @@
     <row r="3" spans="1:10">
       <c r="A3" s="8"/>
       <c r="B3" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>1</v>
-      </c>
       <c r="F3" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="31">
         <v>1</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="31">
         <v>0.33333333333333331</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="20" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B6" s="31">
         <v>0.33333333333333331</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="31">
         <v>1</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -912,7 +912,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="36" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -934,7 +934,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -954,7 +954,7 @@
     </row>
     <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -970,25 +970,25 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="5">
@@ -1010,7 +1010,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="5">
@@ -1032,7 +1032,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="5">
@@ -1040,11 +1040,11 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="22">
@@ -1054,7 +1054,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="5">
@@ -1077,7 +1077,7 @@
     <row r="20" spans="1:12">
       <c r="A20" s="2"/>
       <c r="B20" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="5">
         <f>(16-SUM(C16:C19))</f>
@@ -1086,12 +1086,12 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5">
         <f t="shared" ref="E20" si="0">(16-SUM(E16:E19))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
         <f t="shared" ref="G20" si="1">(16-SUM(G16:G19))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5">
@@ -1103,7 +1103,7 @@
     <row r="21" spans="1:12">
       <c r="A21" s="3"/>
       <c r="B21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5">
         <f>ROUND(C20/24, 2)</f>
@@ -1112,12 +1112,12 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5">
         <f t="shared" ref="E21" si="3">ROUND(E20/24, 2)</f>
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
         <f t="shared" ref="G21" si="4">ROUND(G20/24, 2)</f>
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5">
@@ -1138,7 +1138,7 @@
     </row>
     <row r="23" spans="1:12" ht="16" thickBot="1">
       <c r="A23" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -1156,31 +1156,31 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="7">
@@ -1210,7 +1210,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="7">
@@ -1240,7 +1240,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="7">
@@ -1270,7 +1270,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="7">
@@ -1310,7 +1310,7 @@
     </row>
     <row r="30" spans="1:12" ht="16" thickBot="1">
       <c r="A30" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -1328,31 +1328,31 @@
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="7">
@@ -1382,7 +1382,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="7">
@@ -1412,7 +1412,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="7">
@@ -1442,7 +1442,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="7">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="37" spans="1:12" ht="16" thickBot="1">
       <c r="A37" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -1500,31 +1500,31 @@
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="7">
@@ -1554,7 +1554,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="7">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="7">
@@ -1614,7 +1614,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="7">
@@ -1654,7 +1654,7 @@
     </row>
     <row r="44" spans="1:12" ht="16" thickBot="1">
       <c r="A44" s="28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -1670,19 +1670,19 @@
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="C45" s="34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="34"/>
       <c r="E45" s="34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" s="34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" s="34"/>
     </row>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="20">
         <f>G4</f>
@@ -1713,12 +1713,12 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5">
         <f>E21</f>
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5">
         <f>G21</f>
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5">
@@ -1729,7 +1729,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B48" s="20">
         <f t="shared" ref="B48:B50" si="12">G5</f>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="20" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B49" s="20">
         <f t="shared" si="12"/>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="20">
         <f t="shared" si="12"/>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="18">
@@ -1826,12 +1826,12 @@
       <c r="D51" s="18"/>
       <c r="E51" s="18">
         <f t="shared" ref="E51" si="13">ROUND(SUM($B47*E47, $B48*E48, $B49*E49, $B50*E50),2)</f>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18">
         <f t="shared" ref="G51" si="14">ROUND(SUM($B47*G47, $B48*G48, $B49*G49, $B50*G50),2)</f>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="18">
